--- a/tests/test_data/test.xlsx
+++ b/tests/test_data/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">hex number</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Text 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0</t>
   </si>
   <si>
     <t xml:space="preserve">cat</t>
@@ -92,6 +89,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,6 +225,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -277,7 +286,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -286,10 +295,10 @@
         <v>10.11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>42963</v>
@@ -301,7 +310,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -309,8 +318,11 @@
       <c r="C5" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>42964</v>
@@ -321,81 +333,27 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="0" t="n">
         <v>-4</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>42965</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>42966</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="2" t="n">
-        <v>42967</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="0" t="n">
-        <f aca="false">C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="0" t="n">
-        <f aca="false">C10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="0" t="n">
-        <f aca="false">C11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="0" t="n">
-        <f aca="false">C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="0" t="n">
-        <f aca="false">C13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="0" t="n">
-        <f aca="false">C14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="0" t="n">
-        <f aca="false">C15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
